--- a/CHILE/Agricultura/Emisiones CO2eq Agricultura Chile 1990-2016.xlsx
+++ b/CHILE/Agricultura/Emisiones CO2eq Agricultura Chile 1990-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B71697-9EB1-4BF3-AB6C-DC9AAE47BD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7BA8D3-B9E1-4CC0-9981-FD0063105B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="19">
   <si>
     <t>Emisiones por Tipo de emisión</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Emisiones (kton CO2eq)</t>
-  </si>
-  <si>
-    <t>Emisiones (kton CO2eq)2</t>
   </si>
 </sst>
 </file>
@@ -602,11 +599,11 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -653,27 +650,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -827,15 +804,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CO2EQ_Agricultura_Chile" displayName="CO2EQ_Agricultura_Chile" ref="A2:F299" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{C376BE6D-1B6C-44ED-930D-8F0A7D8D8CFE}" name="Sector" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{1E273132-8A43-47D1-BAB2-19E39A9C57ED}" name="Proceso" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{6ADA64A9-FE5B-4712-B5B7-C2CF9655A8B7}" name="Gas" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{B0E2039A-60A5-43DE-A929-16DC3BAA8BE6}" name="Emisiones (kton CO2eq)" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{423B390B-F150-4518-A226-361F1BE4ED18}" name="Emisiones (kton CO2eq)2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CO2EQ_Agricultura_Chile" displayName="CO2EQ_Agricultura_Chile" ref="A2:E299" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A2:E299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{C376BE6D-1B6C-44ED-930D-8F0A7D8D8CFE}" name="Sector" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{1E273132-8A43-47D1-BAB2-19E39A9C57ED}" name="Proceso" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{6ADA64A9-FE5B-4712-B5B7-C2CF9655A8B7}" name="Gas" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{B0E2039A-60A5-43DE-A929-16DC3BAA8BE6}" name="Emisiones (kton CO2eq)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1138,50 +1114,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H296" sqref="H296"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="27.28515625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="27.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1990</v>
       </c>
@@ -1197,11 +1169,8 @@
       <c r="E3" s="2">
         <v>5488.7399812000003</v>
       </c>
-      <c r="F3" s="2">
-        <v>5488.7399812000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1991</v>
       </c>
@@ -1217,11 +1186,8 @@
       <c r="E4" s="2">
         <v>5535.7539661999999</v>
       </c>
-      <c r="F4" s="2">
-        <v>5535.7539661999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1992</v>
       </c>
@@ -1237,11 +1203,8 @@
       <c r="E5" s="2">
         <v>5672.4230209999996</v>
       </c>
-      <c r="F5" s="2">
-        <v>5672.4230209999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1993</v>
       </c>
@@ -1257,11 +1220,8 @@
       <c r="E6" s="2">
         <v>5869.4546977999998</v>
       </c>
-      <c r="F6" s="2">
-        <v>5869.4546977999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1994</v>
       </c>
@@ -1277,11 +1237,8 @@
       <c r="E7" s="2">
         <v>6055.3627963999998</v>
       </c>
-      <c r="F7" s="2">
-        <v>6055.3627963999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1995</v>
       </c>
@@ -1297,11 +1254,8 @@
       <c r="E8" s="2">
         <v>6140.4452838999996</v>
       </c>
-      <c r="F8" s="2">
-        <v>6140.4452838999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1996</v>
       </c>
@@ -1317,11 +1271,8 @@
       <c r="E9" s="2">
         <v>6144.5332850000004</v>
       </c>
-      <c r="F9" s="2">
-        <v>6144.5332850000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1997</v>
       </c>
@@ -1337,11 +1288,8 @@
       <c r="E10" s="2">
         <v>6413.4661894000001</v>
       </c>
-      <c r="F10" s="2">
-        <v>6413.4661894000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1998</v>
       </c>
@@ -1357,11 +1305,8 @@
       <c r="E11" s="2">
         <v>6364.4193175</v>
       </c>
-      <c r="F11" s="2">
-        <v>6364.4193175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1999</v>
       </c>
@@ -1377,11 +1322,8 @@
       <c r="E12" s="2">
         <v>6305.4578619000004</v>
       </c>
-      <c r="F12" s="2">
-        <v>6305.4578619000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -1397,11 +1339,8 @@
       <c r="E13" s="2">
         <v>6245.0653764999997</v>
       </c>
-      <c r="F13" s="2">
-        <v>6245.0653764999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2001</v>
       </c>
@@ -1417,11 +1356,8 @@
       <c r="E14" s="2">
         <v>6238.2820935</v>
       </c>
-      <c r="F14" s="2">
-        <v>6238.2820935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -1437,11 +1373,8 @@
       <c r="E15" s="2">
         <v>6184.7187800000002</v>
       </c>
-      <c r="F15" s="2">
-        <v>6184.7187800000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -1457,11 +1390,8 @@
       <c r="E16" s="2">
         <v>6119.1694968000002</v>
       </c>
-      <c r="F16" s="2">
-        <v>6119.1694968000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
@@ -1477,11 +1407,8 @@
       <c r="E17" s="2">
         <v>6084.0819689999998</v>
       </c>
-      <c r="F17" s="2">
-        <v>6084.0819689999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2005</v>
       </c>
@@ -1497,11 +1424,8 @@
       <c r="E18" s="2">
         <v>6045.7184796000001</v>
       </c>
-      <c r="F18" s="2">
-        <v>6045.7184796000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -1517,11 +1441,8 @@
       <c r="E19" s="2">
         <v>6016.9942942999996</v>
       </c>
-      <c r="F19" s="2">
-        <v>6016.9942942999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2007</v>
       </c>
@@ -1537,11 +1458,8 @@
       <c r="E20" s="2">
         <v>5971.8451498000004</v>
       </c>
-      <c r="F20" s="2">
-        <v>5971.8451498000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -1557,11 +1475,8 @@
       <c r="E21" s="2">
         <v>5740.3864045</v>
       </c>
-      <c r="F21" s="2">
-        <v>5740.3864045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
@@ -1577,11 +1492,8 @@
       <c r="E22" s="2">
         <v>5466.4770654000004</v>
       </c>
-      <c r="F22" s="2">
-        <v>5466.4770654000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -1597,11 +1509,8 @@
       <c r="E23" s="2">
         <v>5250.4157433</v>
       </c>
-      <c r="F23" s="2">
-        <v>5250.4157433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2011</v>
       </c>
@@ -1617,11 +1526,8 @@
       <c r="E24" s="2">
         <v>5012.7584660000002</v>
       </c>
-      <c r="F24" s="2">
-        <v>5012.7584660000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
@@ -1637,11 +1543,8 @@
       <c r="E25" s="2">
         <v>5164.3591034999999</v>
       </c>
-      <c r="F25" s="2">
-        <v>5164.3591034999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
@@ -1657,11 +1560,8 @@
       <c r="E26" s="2">
         <v>5292.1213506000004</v>
       </c>
-      <c r="F26" s="2">
-        <v>5292.1213506000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2014</v>
       </c>
@@ -1677,11 +1577,8 @@
       <c r="E27" s="2">
         <v>5064.0584925000003</v>
       </c>
-      <c r="F27" s="2">
-        <v>5064.0584925000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2015</v>
       </c>
@@ -1697,11 +1594,8 @@
       <c r="E28" s="2">
         <v>4833.4962507999999</v>
       </c>
-      <c r="F28" s="2">
-        <v>4833.4962507999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -1717,11 +1611,8 @@
       <c r="E29" s="2">
         <v>4682.0184147</v>
       </c>
-      <c r="F29" s="2">
-        <v>4682.0184147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1990</v>
       </c>
@@ -1737,11 +1628,8 @@
       <c r="E30" s="2">
         <v>1521.9335825999999</v>
       </c>
-      <c r="F30" s="2">
-        <v>1521.9335825999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1991</v>
       </c>
@@ -1757,11 +1645,8 @@
       <c r="E31" s="2">
         <v>1579.163292</v>
       </c>
-      <c r="F31" s="2">
-        <v>1579.163292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1992</v>
       </c>
@@ -1777,11 +1662,8 @@
       <c r="E32" s="2">
         <v>1641.6995907</v>
       </c>
-      <c r="F32" s="2">
-        <v>1641.6995907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1993</v>
       </c>
@@ -1797,11 +1679,8 @@
       <c r="E33" s="2">
         <v>1707.0863056000001</v>
       </c>
-      <c r="F33" s="2">
-        <v>1707.0863056000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1994</v>
       </c>
@@ -1817,11 +1696,8 @@
       <c r="E34" s="2">
         <v>1789.7153794999999</v>
       </c>
-      <c r="F34" s="2">
-        <v>1789.7153794999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1995</v>
       </c>
@@ -1837,11 +1713,8 @@
       <c r="E35" s="2">
         <v>1839.7139169</v>
       </c>
-      <c r="F35" s="2">
-        <v>1839.7139169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1996</v>
       </c>
@@ -1857,11 +1730,8 @@
       <c r="E36" s="2">
         <v>1920.1734451</v>
       </c>
-      <c r="F36" s="2">
-        <v>1920.1734451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1997</v>
       </c>
@@ -1877,11 +1747,8 @@
       <c r="E37" s="2">
         <v>2087.2059942000001</v>
       </c>
-      <c r="F37" s="2">
-        <v>2087.2059942000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1998</v>
       </c>
@@ -1897,11 +1764,8 @@
       <c r="E38" s="2">
         <v>2080.4192592999998</v>
       </c>
-      <c r="F38" s="2">
-        <v>2080.4192592999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1999</v>
       </c>
@@ -1917,11 +1781,8 @@
       <c r="E39" s="2">
         <v>2136.1407118000002</v>
       </c>
-      <c r="F39" s="2">
-        <v>2136.1407118000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2000</v>
       </c>
@@ -1937,11 +1798,8 @@
       <c r="E40" s="2">
         <v>2111.2371693</v>
       </c>
-      <c r="F40" s="2">
-        <v>2111.2371693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2001</v>
       </c>
@@ -1957,11 +1815,8 @@
       <c r="E41" s="2">
         <v>1910.9280543</v>
       </c>
-      <c r="F41" s="2">
-        <v>1910.9280543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2002</v>
       </c>
@@ -1977,11 +1832,8 @@
       <c r="E42" s="2">
         <v>1949.9814025000001</v>
       </c>
-      <c r="F42" s="2">
-        <v>1949.9814025000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2003</v>
       </c>
@@ -1997,11 +1849,8 @@
       <c r="E43" s="2">
         <v>1910.3535678000001</v>
       </c>
-      <c r="F43" s="2">
-        <v>1910.3535678000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2004</v>
       </c>
@@ -2017,11 +1866,8 @@
       <c r="E44" s="2">
         <v>2059.8031804000002</v>
       </c>
-      <c r="F44" s="2">
-        <v>2059.8031804000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2005</v>
       </c>
@@ -2037,11 +1883,8 @@
       <c r="E45" s="2">
         <v>2155.7207042999999</v>
       </c>
-      <c r="F45" s="2">
-        <v>2155.7207042999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2006</v>
       </c>
@@ -2057,11 +1900,8 @@
       <c r="E46" s="2">
         <v>2251.8378591000001</v>
       </c>
-      <c r="F46" s="2">
-        <v>2251.8378591000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2007</v>
       </c>
@@ -2077,11 +1917,8 @@
       <c r="E47" s="2">
         <v>2340.8331784000002</v>
       </c>
-      <c r="F47" s="2">
-        <v>2340.8331784000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2008</v>
       </c>
@@ -2097,11 +1934,8 @@
       <c r="E48" s="2">
         <v>2253.5033775000002</v>
       </c>
-      <c r="F48" s="2">
-        <v>2253.5033775000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2009</v>
       </c>
@@ -2117,11 +1951,8 @@
       <c r="E49" s="2">
         <v>2160.6718967000002</v>
       </c>
-      <c r="F49" s="2">
-        <v>2160.6718967000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2010</v>
       </c>
@@ -2137,11 +1968,8 @@
       <c r="E50" s="2">
         <v>2112.9330633</v>
       </c>
-      <c r="F50" s="2">
-        <v>2112.9330633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2011</v>
       </c>
@@ -2157,11 +1985,8 @@
       <c r="E51" s="2">
         <v>2101.5330745000001</v>
       </c>
-      <c r="F51" s="2">
-        <v>2101.5330745000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2012</v>
       </c>
@@ -2177,11 +2002,8 @@
       <c r="E52" s="2">
         <v>2252.7956184999998</v>
       </c>
-      <c r="F52" s="2">
-        <v>2252.7956184999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2013</v>
       </c>
@@ -2197,11 +2019,8 @@
       <c r="E53" s="2">
         <v>2147.9372957</v>
       </c>
-      <c r="F53" s="2">
-        <v>2147.9372957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2014</v>
       </c>
@@ -2217,11 +2036,8 @@
       <c r="E54" s="2">
         <v>2031.3017374000001</v>
       </c>
-      <c r="F54" s="2">
-        <v>2031.3017374000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2015</v>
       </c>
@@ -2237,11 +2053,8 @@
       <c r="E55" s="2">
         <v>2057.3893662</v>
       </c>
-      <c r="F55" s="2">
-        <v>2057.3893662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2016</v>
       </c>
@@ -2257,11 +2070,8 @@
       <c r="E56" s="2">
         <v>2022.0720947</v>
       </c>
-      <c r="F56" s="2">
-        <v>2022.0720947</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1990</v>
       </c>
@@ -2277,11 +2087,8 @@
       <c r="E57" s="2">
         <v>164.17212499999999</v>
       </c>
-      <c r="F57" s="2">
-        <v>164.17212499999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1991</v>
       </c>
@@ -2297,11 +2104,8 @@
       <c r="E58" s="2">
         <v>149.86562499999999</v>
       </c>
-      <c r="F58" s="2">
-        <v>149.86562499999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1992</v>
       </c>
@@ -2317,11 +2121,8 @@
       <c r="E59" s="2">
         <v>159.99100000000001</v>
       </c>
-      <c r="F59" s="2">
-        <v>159.99100000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1993</v>
       </c>
@@ -2337,11 +2138,8 @@
       <c r="E60" s="2">
         <v>146.4905</v>
       </c>
-      <c r="F60" s="2">
-        <v>146.4905</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1994</v>
       </c>
@@ -2357,11 +2155,8 @@
       <c r="E61" s="2">
         <v>152.9385</v>
       </c>
-      <c r="F61" s="2">
-        <v>152.9385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1995</v>
       </c>
@@ -2377,11 +2172,8 @@
       <c r="E62" s="2">
         <v>170.92237499999999</v>
       </c>
-      <c r="F62" s="2">
-        <v>170.92237499999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1996</v>
       </c>
@@ -2397,11 +2189,8 @@
       <c r="E63" s="2">
         <v>161.351125</v>
       </c>
-      <c r="F63" s="2">
-        <v>161.351125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1997</v>
       </c>
@@ -2417,11 +2206,8 @@
       <c r="E64" s="2">
         <v>129.77506750000001</v>
       </c>
-      <c r="F64" s="2">
-        <v>129.77506750000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1998</v>
       </c>
@@ -2437,11 +2223,8 @@
       <c r="E65" s="2">
         <v>134.511325</v>
       </c>
-      <c r="F65" s="2">
-        <v>134.511325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1999</v>
       </c>
@@ -2457,11 +2240,8 @@
       <c r="E66" s="2">
         <v>74.031099999999995</v>
       </c>
-      <c r="F66" s="2">
-        <v>74.031099999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>2000</v>
       </c>
@@ -2477,11 +2257,8 @@
       <c r="E67" s="2">
         <v>129.80629999999999</v>
       </c>
-      <c r="F67" s="2">
-        <v>129.80629999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2001</v>
       </c>
@@ -2497,11 +2274,8 @@
       <c r="E68" s="2">
         <v>143.82062500000001</v>
       </c>
-      <c r="F68" s="2">
-        <v>143.82062500000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2002</v>
       </c>
@@ -2517,11 +2291,8 @@
       <c r="E69" s="2">
         <v>140.94925000000001</v>
       </c>
-      <c r="F69" s="2">
-        <v>140.94925000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2003</v>
       </c>
@@ -2537,11 +2308,8 @@
       <c r="E70" s="2">
         <v>142.20862500000001</v>
       </c>
-      <c r="F70" s="2">
-        <v>142.20862500000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>2004</v>
       </c>
@@ -2557,11 +2325,8 @@
       <c r="E71" s="2">
         <v>125.43375</v>
       </c>
-      <c r="F71" s="2">
-        <v>125.43375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>2005</v>
       </c>
@@ -2577,11 +2342,8 @@
       <c r="E72" s="2">
         <v>126.08862499999999</v>
       </c>
-      <c r="F72" s="2">
-        <v>126.08862499999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2006</v>
       </c>
@@ -2597,11 +2359,8 @@
       <c r="E73" s="2">
         <v>140.94925000000001</v>
       </c>
-      <c r="F73" s="2">
-        <v>140.94925000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2007</v>
       </c>
@@ -2617,11 +2376,8 @@
       <c r="E74" s="2">
         <v>109.6432025</v>
       </c>
-      <c r="F74" s="2">
-        <v>109.6432025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2008</v>
       </c>
@@ -2637,11 +2393,8 @@
       <c r="E75" s="2">
         <v>105.586</v>
       </c>
-      <c r="F75" s="2">
-        <v>105.586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2009</v>
       </c>
@@ -2657,11 +2410,8 @@
       <c r="E76" s="2">
         <v>119.288</v>
       </c>
-      <c r="F76" s="2">
-        <v>119.288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2010</v>
       </c>
@@ -2677,11 +2427,8 @@
       <c r="E77" s="2">
         <v>123.5547625</v>
       </c>
-      <c r="F77" s="2">
-        <v>123.5547625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2011</v>
       </c>
@@ -2697,11 +2444,8 @@
       <c r="E78" s="2">
         <v>126.5470375</v>
       </c>
-      <c r="F78" s="2">
-        <v>126.5470375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2012</v>
       </c>
@@ -2717,11 +2461,8 @@
       <c r="E79" s="2">
         <v>120.8546625</v>
       </c>
-      <c r="F79" s="2">
-        <v>120.8546625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2013</v>
       </c>
@@ -2737,11 +2478,8 @@
       <c r="E80" s="2">
         <v>105.78749999999999</v>
       </c>
-      <c r="F80" s="2">
-        <v>105.78749999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>2014</v>
       </c>
@@ -2757,11 +2495,8 @@
       <c r="E81" s="2">
         <v>112.829925</v>
       </c>
-      <c r="F81" s="2">
-        <v>112.829925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>2015</v>
       </c>
@@ -2777,11 +2512,8 @@
       <c r="E82" s="2">
         <v>119.45927500000001</v>
       </c>
-      <c r="F82" s="2">
-        <v>119.45927500000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2016</v>
       </c>
@@ -2797,11 +2529,8 @@
       <c r="E83" s="2">
         <v>133.69524999999999</v>
       </c>
-      <c r="F83" s="2">
-        <v>133.69524999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1990</v>
       </c>
@@ -2817,11 +2546,8 @@
       <c r="E84" s="2">
         <v>4547.2518534999999</v>
       </c>
-      <c r="F84" s="2">
-        <v>4547.2518534999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1991</v>
       </c>
@@ -2837,11 +2563,8 @@
       <c r="E85" s="2">
         <v>4536.6155795000004</v>
       </c>
-      <c r="F85" s="2">
-        <v>4536.6155795000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1992</v>
       </c>
@@ -2857,11 +2580,8 @@
       <c r="E86" s="2">
         <v>4709.3053447000002</v>
       </c>
-      <c r="F86" s="2">
-        <v>4709.3053447000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1993</v>
       </c>
@@ -2877,11 +2597,8 @@
       <c r="E87" s="2">
         <v>4894.9612221999996</v>
       </c>
-      <c r="F87" s="2">
-        <v>4894.9612221999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1994</v>
       </c>
@@ -2897,11 +2614,8 @@
       <c r="E88" s="2">
         <v>5008.2637286999998</v>
       </c>
-      <c r="F88" s="2">
-        <v>5008.2637286999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1995</v>
       </c>
@@ -2917,11 +2631,8 @@
       <c r="E89" s="2">
         <v>5139.9138027999998</v>
       </c>
-      <c r="F89" s="2">
-        <v>5139.9138027999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1996</v>
       </c>
@@ -2937,11 +2648,8 @@
       <c r="E90" s="2">
         <v>5140.3646448999998</v>
       </c>
-      <c r="F90" s="2">
-        <v>5140.3646448999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1997</v>
       </c>
@@ -2957,11 +2665,8 @@
       <c r="E91" s="2">
         <v>5225.7223733000001</v>
       </c>
-      <c r="F91" s="2">
-        <v>5225.7223733000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1998</v>
       </c>
@@ -2977,11 +2682,8 @@
       <c r="E92" s="2">
         <v>5208.0545580999997</v>
       </c>
-      <c r="F92" s="2">
-        <v>5208.0545580999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1999</v>
       </c>
@@ -2997,11 +2699,8 @@
       <c r="E93" s="2">
         <v>5272.5101809999996</v>
       </c>
-      <c r="F93" s="2">
-        <v>5272.5101809999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2000</v>
       </c>
@@ -3017,11 +2716,8 @@
       <c r="E94" s="2">
         <v>5070.9991491999999</v>
       </c>
-      <c r="F94" s="2">
-        <v>5070.9991491999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>2001</v>
       </c>
@@ -3037,11 +2733,8 @@
       <c r="E95" s="2">
         <v>5147.7315933</v>
       </c>
-      <c r="F95" s="2">
-        <v>5147.7315933</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2002</v>
       </c>
@@ -3057,11 +2750,8 @@
       <c r="E96" s="2">
         <v>5215.7921305</v>
       </c>
-      <c r="F96" s="2">
-        <v>5215.7921305</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2003</v>
       </c>
@@ -3077,11 +2767,8 @@
       <c r="E97" s="2">
         <v>5016.1534534000002</v>
       </c>
-      <c r="F97" s="2">
-        <v>5016.1534534000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>2004</v>
       </c>
@@ -3097,11 +2784,8 @@
       <c r="E98" s="2">
         <v>5313.4321418999998</v>
       </c>
-      <c r="F98" s="2">
-        <v>5313.4321418999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>2005</v>
       </c>
@@ -3117,11 +2801,8 @@
       <c r="E99" s="2">
         <v>5129.3981033</v>
       </c>
-      <c r="F99" s="2">
-        <v>5129.3981033</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2006</v>
       </c>
@@ -3137,11 +2818,8 @@
       <c r="E100" s="2">
         <v>5203.6631047000001</v>
       </c>
-      <c r="F100" s="2">
-        <v>5203.6631047000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>2007</v>
       </c>
@@ -3157,11 +2835,8 @@
       <c r="E101" s="2">
         <v>5348.5414356000001</v>
       </c>
-      <c r="F101" s="2">
-        <v>5348.5414356000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>2008</v>
       </c>
@@ -3177,11 +2852,8 @@
       <c r="E102" s="2">
         <v>5403.1020128</v>
       </c>
-      <c r="F102" s="2">
-        <v>5403.1020128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>2009</v>
       </c>
@@ -3197,11 +2869,8 @@
       <c r="E103" s="2">
         <v>5355.7152456000003</v>
       </c>
-      <c r="F103" s="2">
-        <v>5355.7152456000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2010</v>
       </c>
@@ -3217,11 +2886,8 @@
       <c r="E104" s="2">
         <v>5238.7332047999998</v>
       </c>
-      <c r="F104" s="2">
-        <v>5238.7332047999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>2011</v>
       </c>
@@ -3237,11 +2903,8 @@
       <c r="E105" s="2">
         <v>4802.1357243000002</v>
       </c>
-      <c r="F105" s="2">
-        <v>4802.1357243000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2012</v>
       </c>
@@ -3257,11 +2920,8 @@
       <c r="E106" s="2">
         <v>4611.6421548999997</v>
       </c>
-      <c r="F106" s="2">
-        <v>4611.6421548999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2013</v>
       </c>
@@ -3277,11 +2937,8 @@
       <c r="E107" s="2">
         <v>4746.2474039999997</v>
       </c>
-      <c r="F107" s="2">
-        <v>4746.2474039999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2014</v>
       </c>
@@ -3297,11 +2954,8 @@
       <c r="E108" s="2">
         <v>4683.1924451000004</v>
       </c>
-      <c r="F108" s="2">
-        <v>4683.1924451000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2015</v>
       </c>
@@ -3317,11 +2971,8 @@
       <c r="E109" s="2">
         <v>4621.6504959000004</v>
       </c>
-      <c r="F109" s="2">
-        <v>4621.6504959000004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2016</v>
       </c>
@@ -3337,11 +2988,8 @@
       <c r="E110" s="2">
         <v>4483.6148020999999</v>
       </c>
-      <c r="F110" s="2">
-        <v>4483.6148020999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1990</v>
       </c>
@@ -3357,11 +3005,8 @@
       <c r="E111" s="2">
         <v>0</v>
       </c>
-      <c r="F111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1991</v>
       </c>
@@ -3377,11 +3022,8 @@
       <c r="E112" s="2">
         <v>0</v>
       </c>
-      <c r="F112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1992</v>
       </c>
@@ -3397,11 +3039,8 @@
       <c r="E113" s="2">
         <v>0</v>
       </c>
-      <c r="F113" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1993</v>
       </c>
@@ -3417,11 +3056,8 @@
       <c r="E114" s="2">
         <v>0</v>
       </c>
-      <c r="F114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1994</v>
       </c>
@@ -3437,11 +3073,8 @@
       <c r="E115" s="2">
         <v>0</v>
       </c>
-      <c r="F115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1995</v>
       </c>
@@ -3457,11 +3090,8 @@
       <c r="E116" s="2">
         <v>0</v>
       </c>
-      <c r="F116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1996</v>
       </c>
@@ -3477,11 +3107,8 @@
       <c r="E117" s="2">
         <v>0</v>
       </c>
-      <c r="F117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1997</v>
       </c>
@@ -3497,11 +3124,8 @@
       <c r="E118" s="2">
         <v>0</v>
       </c>
-      <c r="F118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1998</v>
       </c>
@@ -3517,11 +3141,8 @@
       <c r="E119" s="2">
         <v>0</v>
       </c>
-      <c r="F119" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1999</v>
       </c>
@@ -3537,11 +3158,8 @@
       <c r="E120" s="2">
         <v>0</v>
       </c>
-      <c r="F120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2000</v>
       </c>
@@ -3557,11 +3175,8 @@
       <c r="E121" s="2">
         <v>0</v>
       </c>
-      <c r="F121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2001</v>
       </c>
@@ -3577,11 +3192,8 @@
       <c r="E122" s="2">
         <v>0</v>
       </c>
-      <c r="F122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2002</v>
       </c>
@@ -3597,11 +3209,8 @@
       <c r="E123" s="2">
         <v>0</v>
       </c>
-      <c r="F123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2003</v>
       </c>
@@ -3617,11 +3226,8 @@
       <c r="E124" s="2">
         <v>0</v>
       </c>
-      <c r="F124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2004</v>
       </c>
@@ -3637,11 +3243,8 @@
       <c r="E125" s="2">
         <v>0</v>
       </c>
-      <c r="F125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2005</v>
       </c>
@@ -3657,11 +3260,8 @@
       <c r="E126" s="2">
         <v>0</v>
       </c>
-      <c r="F126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>2006</v>
       </c>
@@ -3677,11 +3277,8 @@
       <c r="E127" s="2">
         <v>0</v>
       </c>
-      <c r="F127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>2007</v>
       </c>
@@ -3697,11 +3294,8 @@
       <c r="E128" s="2">
         <v>0</v>
       </c>
-      <c r="F128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>2008</v>
       </c>
@@ -3717,11 +3311,8 @@
       <c r="E129" s="2">
         <v>0</v>
       </c>
-      <c r="F129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2009</v>
       </c>
@@ -3737,11 +3328,8 @@
       <c r="E130" s="2">
         <v>0</v>
       </c>
-      <c r="F130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2010</v>
       </c>
@@ -3757,11 +3345,8 @@
       <c r="E131" s="2">
         <v>0</v>
       </c>
-      <c r="F131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2011</v>
       </c>
@@ -3777,11 +3362,8 @@
       <c r="E132" s="2">
         <v>0</v>
       </c>
-      <c r="F132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2012</v>
       </c>
@@ -3797,11 +3379,8 @@
       <c r="E133" s="2">
         <v>0</v>
       </c>
-      <c r="F133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2013</v>
       </c>
@@ -3817,11 +3396,8 @@
       <c r="E134" s="2">
         <v>0</v>
       </c>
-      <c r="F134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2014</v>
       </c>
@@ -3837,11 +3413,8 @@
       <c r="E135" s="2">
         <v>0</v>
       </c>
-      <c r="F135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>2015</v>
       </c>
@@ -3857,11 +3430,8 @@
       <c r="E136" s="2">
         <v>0</v>
       </c>
-      <c r="F136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>2016</v>
       </c>
@@ -3877,11 +3447,8 @@
       <c r="E137" s="2">
         <v>0</v>
       </c>
-      <c r="F137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1990</v>
       </c>
@@ -3897,11 +3464,8 @@
       <c r="E138" s="2">
         <v>148.8645698</v>
       </c>
-      <c r="F138" s="2">
-        <v>148.8645698</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1991</v>
       </c>
@@ -3917,11 +3481,8 @@
       <c r="E139" s="2">
         <v>140.06407580000001</v>
       </c>
-      <c r="F139" s="2">
-        <v>140.06407580000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1992</v>
       </c>
@@ -3937,11 +3498,8 @@
       <c r="E140" s="2">
         <v>133.77551450000001</v>
       </c>
-      <c r="F140" s="2">
-        <v>133.77551450000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1993</v>
       </c>
@@ -3957,11 +3515,8 @@
       <c r="E141" s="2">
         <v>121.33856179999999</v>
       </c>
-      <c r="F141" s="2">
-        <v>121.33856179999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1994</v>
       </c>
@@ -3977,11 +3532,8 @@
       <c r="E142" s="2">
         <v>112.3386835</v>
       </c>
-      <c r="F142" s="2">
-        <v>112.3386835</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1995</v>
       </c>
@@ -3997,11 +3549,8 @@
       <c r="E143" s="2">
         <v>110.4054496</v>
       </c>
-      <c r="F143" s="2">
-        <v>110.4054496</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1996</v>
       </c>
@@ -4017,11 +3566,8 @@
       <c r="E144" s="2">
         <v>100.8527747</v>
       </c>
-      <c r="F144" s="2">
-        <v>100.8527747</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1997</v>
       </c>
@@ -4037,11 +3583,8 @@
       <c r="E145" s="2">
         <v>104.2800987</v>
       </c>
-      <c r="F145" s="2">
-        <v>104.2800987</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1998</v>
       </c>
@@ -4057,11 +3600,8 @@
       <c r="E146" s="2">
         <v>101.98950840000001</v>
       </c>
-      <c r="F146" s="2">
-        <v>101.98950840000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1999</v>
       </c>
@@ -4077,11 +3617,8 @@
       <c r="E147" s="2">
         <v>82.511856399999999</v>
       </c>
-      <c r="F147" s="2">
-        <v>82.511856399999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2000</v>
       </c>
@@ -4097,11 +3634,8 @@
       <c r="E148" s="2">
         <v>85.083148800000004</v>
       </c>
-      <c r="F148" s="2">
-        <v>85.083148800000004</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2001</v>
       </c>
@@ -4117,11 +3651,8 @@
       <c r="E149" s="2">
         <v>88.399696800000001</v>
       </c>
-      <c r="F149" s="2">
-        <v>88.399696800000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2002</v>
       </c>
@@ -4137,11 +3668,8 @@
       <c r="E150" s="2">
         <v>85.773547500000006</v>
       </c>
-      <c r="F150" s="2">
-        <v>85.773547500000006</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>2003</v>
       </c>
@@ -4157,11 +3685,8 @@
       <c r="E151" s="2">
         <v>84.398506299999994</v>
       </c>
-      <c r="F151" s="2">
-        <v>84.398506299999994</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2004</v>
       </c>
@@ -4177,11 +3702,8 @@
       <c r="E152" s="2">
         <v>81.713349500000007</v>
       </c>
-      <c r="F152" s="2">
-        <v>81.713349500000007</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>2005</v>
       </c>
@@ -4197,11 +3719,8 @@
       <c r="E153" s="2">
         <v>73.1848691</v>
       </c>
-      <c r="F153" s="2">
-        <v>73.1848691</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>2006</v>
       </c>
@@ -4217,11 +3736,8 @@
       <c r="E154" s="2">
         <v>65.161957000000001</v>
       </c>
-      <c r="F154" s="2">
-        <v>65.161957000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>2007</v>
       </c>
@@ -4237,11 +3753,8 @@
       <c r="E155" s="2">
         <v>46.808785</v>
       </c>
-      <c r="F155" s="2">
-        <v>46.808785</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>2008</v>
       </c>
@@ -4257,11 +3770,8 @@
       <c r="E156" s="2">
         <v>49.398836600000003</v>
       </c>
-      <c r="F156" s="2">
-        <v>49.398836600000003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2009</v>
       </c>
@@ -4277,11 +3787,8 @@
       <c r="E157" s="2">
         <v>46.721506599999998</v>
       </c>
-      <c r="F157" s="2">
-        <v>46.721506599999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>2010</v>
       </c>
@@ -4297,11 +3804,8 @@
       <c r="E158" s="2">
         <v>48.3065949</v>
       </c>
-      <c r="F158" s="2">
-        <v>48.3065949</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2011</v>
       </c>
@@ -4317,11 +3821,8 @@
       <c r="E159" s="2">
         <v>50.700174799999999</v>
       </c>
-      <c r="F159" s="2">
-        <v>50.700174799999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>2012</v>
       </c>
@@ -4337,11 +3838,8 @@
       <c r="E160" s="2">
         <v>44.340451799999997</v>
       </c>
-      <c r="F160" s="2">
-        <v>44.340451799999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2013</v>
       </c>
@@ -4357,11 +3855,8 @@
       <c r="E161" s="2">
         <v>46.9358918</v>
       </c>
-      <c r="F161" s="2">
-        <v>46.9358918</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>2014</v>
       </c>
@@ -4377,11 +3872,8 @@
       <c r="E162" s="2">
         <v>45.997102599999998</v>
       </c>
-      <c r="F162" s="2">
-        <v>45.997102599999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2015</v>
       </c>
@@ -4397,11 +3889,8 @@
       <c r="E163" s="2">
         <v>50.553158500000002</v>
       </c>
-      <c r="F163" s="2">
-        <v>50.553158500000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2016</v>
       </c>
@@ -4417,11 +3906,8 @@
       <c r="E164" s="2">
         <v>34.849775100000002</v>
       </c>
-      <c r="F164" s="2">
-        <v>34.849775100000002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>1990</v>
       </c>
@@ -4437,11 +3923,8 @@
       <c r="E165" s="2">
         <v>30.8</v>
       </c>
-      <c r="F165" s="2">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1991</v>
       </c>
@@ -4457,11 +3940,8 @@
       <c r="E166" s="2">
         <v>33.131999999999998</v>
       </c>
-      <c r="F166" s="2">
-        <v>33.131999999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1992</v>
       </c>
@@ -4477,11 +3957,8 @@
       <c r="E167" s="2">
         <v>35.463999999999999</v>
       </c>
-      <c r="F167" s="2">
-        <v>35.463999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1993</v>
       </c>
@@ -4497,11 +3974,8 @@
       <c r="E168" s="2">
         <v>37.795999999999999</v>
       </c>
-      <c r="F168" s="2">
-        <v>37.795999999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1994</v>
       </c>
@@ -4517,11 +3991,8 @@
       <c r="E169" s="2">
         <v>40.128</v>
       </c>
-      <c r="F169" s="2">
-        <v>40.128</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>1995</v>
       </c>
@@ -4537,11 +4008,8 @@
       <c r="E170" s="2">
         <v>41.052</v>
       </c>
-      <c r="F170" s="2">
-        <v>41.052</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1996</v>
       </c>
@@ -4557,11 +4025,8 @@
       <c r="E171" s="2">
         <v>45.847999999999999</v>
       </c>
-      <c r="F171" s="2">
-        <v>45.847999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1997</v>
       </c>
@@ -4577,11 +4042,8 @@
       <c r="E172" s="2">
         <v>50.951999999999998</v>
       </c>
-      <c r="F172" s="2">
-        <v>50.951999999999998</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>1998</v>
       </c>
@@ -4597,11 +4059,8 @@
       <c r="E173" s="2">
         <v>58.695999999999998</v>
       </c>
-      <c r="F173" s="2">
-        <v>58.695999999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1999</v>
       </c>
@@ -4617,11 +4076,8 @@
       <c r="E174" s="2">
         <v>56.892000000000003</v>
       </c>
-      <c r="F174" s="2">
-        <v>56.892000000000003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2000</v>
       </c>
@@ -4637,11 +4093,8 @@
       <c r="E175" s="2">
         <v>63.624000000000002</v>
       </c>
-      <c r="F175" s="2">
-        <v>63.624000000000002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>2001</v>
       </c>
@@ -4657,11 +4110,8 @@
       <c r="E176" s="2">
         <v>67.540000000000006</v>
       </c>
-      <c r="F176" s="2">
-        <v>67.540000000000006</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>2002</v>
       </c>
@@ -4677,11 +4127,8 @@
       <c r="E177" s="2">
         <v>80.212000000000003</v>
       </c>
-      <c r="F177" s="2">
-        <v>80.212000000000003</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>2003</v>
       </c>
@@ -4697,11 +4144,8 @@
       <c r="E178" s="2">
         <v>77.66</v>
       </c>
-      <c r="F178" s="2">
-        <v>77.66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2004</v>
       </c>
@@ -4717,11 +4161,8 @@
       <c r="E179" s="2">
         <v>89.1</v>
       </c>
-      <c r="F179" s="2">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>2005</v>
       </c>
@@ -4737,11 +4178,8 @@
       <c r="E180" s="2">
         <v>81.326695999999998</v>
       </c>
-      <c r="F180" s="2">
-        <v>81.326695999999998</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>2006</v>
       </c>
@@ -4757,11 +4195,8 @@
       <c r="E181" s="2">
         <v>83.9198624</v>
       </c>
-      <c r="F181" s="2">
-        <v>83.9198624</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>2007</v>
       </c>
@@ -4777,11 +4212,8 @@
       <c r="E182" s="2">
         <v>86.372352000000006</v>
       </c>
-      <c r="F182" s="2">
-        <v>86.372352000000006</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>2008</v>
       </c>
@@ -4797,11 +4229,8 @@
       <c r="E183" s="2">
         <v>88.684164800000005</v>
       </c>
-      <c r="F183" s="2">
-        <v>88.684164800000005</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2009</v>
       </c>
@@ -4817,11 +4246,8 @@
       <c r="E184" s="2">
         <v>90.855300799999995</v>
       </c>
-      <c r="F184" s="2">
-        <v>90.855300799999995</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2010</v>
       </c>
@@ -4837,11 +4263,8 @@
       <c r="E185" s="2">
         <v>92.885760000000005</v>
       </c>
-      <c r="F185" s="2">
-        <v>92.885760000000005</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2011</v>
       </c>
@@ -4857,11 +4280,8 @@
       <c r="E186" s="2">
         <v>115.3198757</v>
       </c>
-      <c r="F186" s="2">
-        <v>115.3198757</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2012</v>
       </c>
@@ -4877,11 +4297,8 @@
       <c r="E187" s="2">
         <v>113.24165600000001</v>
       </c>
-      <c r="F187" s="2">
-        <v>113.24165600000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2013</v>
       </c>
@@ -4897,11 +4314,8 @@
       <c r="E188" s="2">
         <v>108.94537870000001</v>
       </c>
-      <c r="F188" s="2">
-        <v>108.94537870000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>2014</v>
       </c>
@@ -4917,11 +4331,8 @@
       <c r="E189" s="2">
         <v>100.24910130000001</v>
       </c>
-      <c r="F189" s="2">
-        <v>100.24910130000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2015</v>
       </c>
@@ -4937,11 +4348,8 @@
       <c r="E190" s="2">
         <v>95.072823999999997</v>
       </c>
-      <c r="F190" s="2">
-        <v>95.072823999999997</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2016</v>
       </c>
@@ -4957,11 +4365,8 @@
       <c r="E191" s="2">
         <v>88.400546700000007</v>
       </c>
-      <c r="F191" s="2">
-        <v>88.400546700000007</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1990</v>
       </c>
@@ -4977,11 +4382,8 @@
       <c r="E192" s="2">
         <v>169.66971889999999</v>
       </c>
-      <c r="F192" s="2">
-        <v>169.66971889999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1991</v>
       </c>
@@ -4997,11 +4399,8 @@
       <c r="E193" s="2">
         <v>192.3990584</v>
       </c>
-      <c r="F193" s="2">
-        <v>192.3990584</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1992</v>
       </c>
@@ -5017,11 +4416,8 @@
       <c r="E194" s="2">
         <v>209.31705679999999</v>
       </c>
-      <c r="F194" s="2">
-        <v>209.31705679999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>1993</v>
       </c>
@@ -5037,11 +4433,8 @@
       <c r="E195" s="2">
         <v>210.1344876</v>
       </c>
-      <c r="F195" s="2">
-        <v>210.1344876</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>1994</v>
       </c>
@@ -5057,11 +4450,8 @@
       <c r="E196" s="2">
         <v>198.94330600000001</v>
       </c>
-      <c r="F196" s="2">
-        <v>198.94330600000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1995</v>
       </c>
@@ -5077,11 +4467,8 @@
       <c r="E197" s="2">
         <v>222.75288399999999</v>
       </c>
-      <c r="F197" s="2">
-        <v>222.75288399999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>1996</v>
       </c>
@@ -5097,11 +4484,8 @@
       <c r="E198" s="2">
         <v>296.11204179999999</v>
       </c>
-      <c r="F198" s="2">
-        <v>296.11204179999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>1997</v>
       </c>
@@ -5117,11 +4501,8 @@
       <c r="E199" s="2">
         <v>206.27857069999999</v>
       </c>
-      <c r="F199" s="2">
-        <v>206.27857069999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>1998</v>
       </c>
@@ -5137,11 +4518,8 @@
       <c r="E200" s="2">
         <v>236.88623569999999</v>
       </c>
-      <c r="F200" s="2">
-        <v>236.88623569999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>1999</v>
       </c>
@@ -5157,11 +4535,8 @@
       <c r="E201" s="2">
         <v>272.27847739999999</v>
       </c>
-      <c r="F201" s="2">
-        <v>272.27847739999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2000</v>
       </c>
@@ -5177,11 +4552,8 @@
       <c r="E202" s="2">
         <v>302.87122140000002</v>
       </c>
-      <c r="F202" s="2">
-        <v>302.87122140000002</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2001</v>
       </c>
@@ -5197,11 +4569,8 @@
       <c r="E203" s="2">
         <v>273.3932168</v>
       </c>
-      <c r="F203" s="2">
-        <v>273.3932168</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2002</v>
       </c>
@@ -5217,11 +4586,8 @@
       <c r="E204" s="2">
         <v>308.57003470000001</v>
       </c>
-      <c r="F204" s="2">
-        <v>308.57003470000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2003</v>
       </c>
@@ -5237,11 +4603,8 @@
       <c r="E205" s="2">
         <v>343.18577479999999</v>
       </c>
-      <c r="F205" s="2">
-        <v>343.18577479999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2004</v>
       </c>
@@ -5257,11 +4620,8 @@
       <c r="E206" s="2">
         <v>351.3280628</v>
       </c>
-      <c r="F206" s="2">
-        <v>351.3280628</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2005</v>
       </c>
@@ -5277,11 +4637,8 @@
       <c r="E207" s="2">
         <v>295.21427469999998</v>
       </c>
-      <c r="F207" s="2">
-        <v>295.21427469999998</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2006</v>
       </c>
@@ -5297,11 +4654,8 @@
       <c r="E208" s="2">
         <v>312.05682940000003</v>
       </c>
-      <c r="F208" s="2">
-        <v>312.05682940000003</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2007</v>
       </c>
@@ -5317,11 +4671,8 @@
       <c r="E209" s="2">
         <v>308.64926819999999</v>
       </c>
-      <c r="F209" s="2">
-        <v>308.64926819999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2008</v>
       </c>
@@ -5337,11 +4688,8 @@
       <c r="E210" s="2">
         <v>342.77125849999999</v>
       </c>
-      <c r="F210" s="2">
-        <v>342.77125849999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2009</v>
       </c>
@@ -5357,11 +4705,8 @@
       <c r="E211" s="2">
         <v>301.31349310000002</v>
       </c>
-      <c r="F211" s="2">
-        <v>301.31349310000002</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2010</v>
       </c>
@@ -5377,11 +4722,8 @@
       <c r="E212" s="2">
         <v>377.22282050000001</v>
       </c>
-      <c r="F212" s="2">
-        <v>377.22282050000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2011</v>
       </c>
@@ -5397,11 +4739,8 @@
       <c r="E213" s="2">
         <v>373.84646229999998</v>
       </c>
-      <c r="F213" s="2">
-        <v>373.84646229999998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2012</v>
       </c>
@@ -5417,11 +4756,8 @@
       <c r="E214" s="2">
         <v>372.26265319999999</v>
       </c>
-      <c r="F214" s="2">
-        <v>372.26265319999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2013</v>
       </c>
@@ -5437,11 +4773,8 @@
       <c r="E215" s="2">
         <v>400.3751992</v>
       </c>
-      <c r="F215" s="2">
-        <v>400.3751992</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2014</v>
       </c>
@@ -5457,11 +4790,8 @@
       <c r="E216" s="2">
         <v>381.47821060000001</v>
       </c>
-      <c r="F216" s="2">
-        <v>381.47821060000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>2015</v>
       </c>
@@ -5477,11 +4807,8 @@
       <c r="E217" s="2">
         <v>433.01571159999997</v>
       </c>
-      <c r="F217" s="2">
-        <v>433.01571159999997</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2016</v>
       </c>
@@ -5497,11 +4824,8 @@
       <c r="E218" s="2">
         <v>356.95122320000002</v>
       </c>
-      <c r="F218" s="2">
-        <v>356.95122320000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>1990</v>
       </c>
@@ -5517,11 +4841,8 @@
       <c r="E219" s="2">
         <v>0</v>
       </c>
-      <c r="F219" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1991</v>
       </c>
@@ -5537,11 +4858,8 @@
       <c r="E220" s="2">
         <v>0</v>
       </c>
-      <c r="F220" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1992</v>
       </c>
@@ -5557,11 +4875,8 @@
       <c r="E221" s="2">
         <v>0</v>
       </c>
-      <c r="F221" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1993</v>
       </c>
@@ -5577,11 +4892,8 @@
       <c r="E222" s="2">
         <v>0</v>
       </c>
-      <c r="F222" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>1994</v>
       </c>
@@ -5597,11 +4909,8 @@
       <c r="E223" s="2">
         <v>0</v>
       </c>
-      <c r="F223" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1995</v>
       </c>
@@ -5617,11 +4926,8 @@
       <c r="E224" s="2">
         <v>0</v>
       </c>
-      <c r="F224" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1996</v>
       </c>
@@ -5637,11 +4943,8 @@
       <c r="E225" s="2">
         <v>0</v>
       </c>
-      <c r="F225" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1997</v>
       </c>
@@ -5657,11 +4960,8 @@
       <c r="E226" s="2">
         <v>0</v>
       </c>
-      <c r="F226" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>1998</v>
       </c>
@@ -5677,11 +4977,8 @@
       <c r="E227" s="2">
         <v>0</v>
       </c>
-      <c r="F227" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1999</v>
       </c>
@@ -5697,11 +4994,8 @@
       <c r="E228" s="2">
         <v>0</v>
       </c>
-      <c r="F228" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2000</v>
       </c>
@@ -5717,11 +5011,8 @@
       <c r="E229" s="2">
         <v>0</v>
       </c>
-      <c r="F229" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>2001</v>
       </c>
@@ -5737,11 +5028,8 @@
       <c r="E230" s="2">
         <v>0</v>
       </c>
-      <c r="F230" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>2002</v>
       </c>
@@ -5757,11 +5045,8 @@
       <c r="E231" s="2">
         <v>0</v>
       </c>
-      <c r="F231" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2003</v>
       </c>
@@ -5777,11 +5062,8 @@
       <c r="E232" s="2">
         <v>0</v>
       </c>
-      <c r="F232" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>2004</v>
       </c>
@@ -5797,11 +5079,8 @@
       <c r="E233" s="2">
         <v>0</v>
       </c>
-      <c r="F233" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>2005</v>
       </c>
@@ -5817,11 +5096,8 @@
       <c r="E234" s="2">
         <v>0</v>
       </c>
-      <c r="F234" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>2006</v>
       </c>
@@ -5837,11 +5113,8 @@
       <c r="E235" s="2">
         <v>0</v>
       </c>
-      <c r="F235" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>2007</v>
       </c>
@@ -5857,11 +5130,8 @@
       <c r="E236" s="2">
         <v>0</v>
       </c>
-      <c r="F236" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2008</v>
       </c>
@@ -5877,11 +5147,8 @@
       <c r="E237" s="2">
         <v>0</v>
       </c>
-      <c r="F237" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>2009</v>
       </c>
@@ -5897,11 +5164,8 @@
       <c r="E238" s="2">
         <v>0</v>
       </c>
-      <c r="F238" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2010</v>
       </c>
@@ -5917,11 +5181,8 @@
       <c r="E239" s="2">
         <v>0</v>
       </c>
-      <c r="F239" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>2011</v>
       </c>
@@ -5937,11 +5198,8 @@
       <c r="E240" s="2">
         <v>0</v>
       </c>
-      <c r="F240" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2012</v>
       </c>
@@ -5957,11 +5215,8 @@
       <c r="E241" s="2">
         <v>0</v>
       </c>
-      <c r="F241" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2013</v>
       </c>
@@ -5977,11 +5232,8 @@
       <c r="E242" s="2">
         <v>0</v>
       </c>
-      <c r="F242" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>2014</v>
       </c>
@@ -5997,11 +5249,8 @@
       <c r="E243" s="2">
         <v>0</v>
       </c>
-      <c r="F243" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>2015</v>
       </c>
@@ -6017,11 +5266,8 @@
       <c r="E244" s="2">
         <v>0</v>
       </c>
-      <c r="F244" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2016</v>
       </c>
@@ -6037,11 +5283,8 @@
       <c r="E245" s="2">
         <v>0</v>
       </c>
-      <c r="F245" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>1990</v>
       </c>
@@ -6057,11 +5300,8 @@
       <c r="E246" s="2">
         <v>0</v>
       </c>
-      <c r="F246" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>1991</v>
       </c>
@@ -6077,11 +5317,8 @@
       <c r="E247" s="2">
         <v>0</v>
       </c>
-      <c r="F247" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>1992</v>
       </c>
@@ -6097,11 +5334,8 @@
       <c r="E248" s="2">
         <v>0</v>
       </c>
-      <c r="F248" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>1993</v>
       </c>
@@ -6117,11 +5351,8 @@
       <c r="E249" s="2">
         <v>0</v>
       </c>
-      <c r="F249" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>1994</v>
       </c>
@@ -6137,11 +5368,8 @@
       <c r="E250" s="2">
         <v>0</v>
       </c>
-      <c r="F250" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>1995</v>
       </c>
@@ -6157,11 +5385,8 @@
       <c r="E251" s="2">
         <v>0</v>
       </c>
-      <c r="F251" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>1996</v>
       </c>
@@ -6177,11 +5402,8 @@
       <c r="E252" s="2">
         <v>0</v>
       </c>
-      <c r="F252" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>1997</v>
       </c>
@@ -6197,11 +5419,8 @@
       <c r="E253" s="2">
         <v>0</v>
       </c>
-      <c r="F253" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>1998</v>
       </c>
@@ -6217,11 +5436,8 @@
       <c r="E254" s="2">
         <v>0</v>
       </c>
-      <c r="F254" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>1999</v>
       </c>
@@ -6237,11 +5453,8 @@
       <c r="E255" s="2">
         <v>0</v>
       </c>
-      <c r="F255" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2000</v>
       </c>
@@ -6257,11 +5470,8 @@
       <c r="E256" s="2">
         <v>0</v>
       </c>
-      <c r="F256" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>2001</v>
       </c>
@@ -6277,11 +5487,8 @@
       <c r="E257" s="2">
         <v>0</v>
       </c>
-      <c r="F257" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2002</v>
       </c>
@@ -6297,11 +5504,8 @@
       <c r="E258" s="2">
         <v>0</v>
       </c>
-      <c r="F258" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>2003</v>
       </c>
@@ -6317,11 +5521,8 @@
       <c r="E259" s="2">
         <v>0</v>
       </c>
-      <c r="F259" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>2004</v>
       </c>
@@ -6337,11 +5538,8 @@
       <c r="E260" s="2">
         <v>0</v>
       </c>
-      <c r="F260" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>2005</v>
       </c>
@@ -6357,11 +5555,8 @@
       <c r="E261" s="2">
         <v>0</v>
       </c>
-      <c r="F261" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2006</v>
       </c>
@@ -6377,11 +5572,8 @@
       <c r="E262" s="2">
         <v>0</v>
       </c>
-      <c r="F262" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>2007</v>
       </c>
@@ -6397,11 +5589,8 @@
       <c r="E263" s="2">
         <v>0</v>
       </c>
-      <c r="F263" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2008</v>
       </c>
@@ -6417,11 +5606,8 @@
       <c r="E264" s="2">
         <v>0</v>
       </c>
-      <c r="F264" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>2009</v>
       </c>
@@ -6437,11 +5623,8 @@
       <c r="E265" s="2">
         <v>0</v>
       </c>
-      <c r="F265" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>2010</v>
       </c>
@@ -6457,11 +5640,8 @@
       <c r="E266" s="2">
         <v>0</v>
       </c>
-      <c r="F266" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>2011</v>
       </c>
@@ -6477,11 +5657,8 @@
       <c r="E267" s="2">
         <v>0</v>
       </c>
-      <c r="F267" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>2012</v>
       </c>
@@ -6497,11 +5674,8 @@
       <c r="E268" s="2">
         <v>0</v>
       </c>
-      <c r="F268" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>2013</v>
       </c>
@@ -6517,11 +5691,8 @@
       <c r="E269" s="2">
         <v>0</v>
       </c>
-      <c r="F269" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>2014</v>
       </c>
@@ -6537,11 +5708,8 @@
       <c r="E270" s="2">
         <v>0</v>
       </c>
-      <c r="F270" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>2015</v>
       </c>
@@ -6557,11 +5725,8 @@
       <c r="E271" s="2">
         <v>0</v>
       </c>
-      <c r="F271" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>2016</v>
       </c>
@@ -6577,11 +5742,8 @@
       <c r="E272" s="2">
         <v>0</v>
       </c>
-      <c r="F272" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>1990</v>
       </c>
@@ -6597,11 +5759,8 @@
       <c r="E273" s="2">
         <v>12071.431831</v>
       </c>
-      <c r="F273" s="2">
-        <v>12071.431831</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>1991</v>
       </c>
@@ -6617,11 +5776,8 @@
       <c r="E274" s="2">
         <v>12166.9935969</v>
       </c>
-      <c r="F274" s="2">
-        <v>12166.9935969</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>1992</v>
       </c>
@@ -6637,11 +5793,8 @@
       <c r="E275" s="2">
         <v>12561.9755277</v>
       </c>
-      <c r="F275" s="2">
-        <v>12561.9755277</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>1993</v>
       </c>
@@ -6657,11 +5810,8 @@
       <c r="E276" s="2">
         <v>12987.261775000001</v>
       </c>
-      <c r="F276" s="2">
-        <v>12987.261775000001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>1994</v>
       </c>
@@ -6677,11 +5827,8 @@
       <c r="E277" s="2">
         <v>13357.6903941</v>
       </c>
-      <c r="F277" s="2">
-        <v>13357.6903941</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>1995</v>
       </c>
@@ -6697,11 +5844,8 @@
       <c r="E278" s="2">
         <v>13665.205712200001</v>
       </c>
-      <c r="F278" s="2">
-        <v>13665.205712200001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1996</v>
       </c>
@@ -6717,11 +5861,8 @@
       <c r="E279" s="2">
         <v>13809.2353165</v>
       </c>
-      <c r="F279" s="2">
-        <v>13809.2353165</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>1997</v>
       </c>
@@ -6737,11 +5878,8 @@
       <c r="E280" s="2">
         <v>14217.6802938</v>
       </c>
-      <c r="F280" s="2">
-        <v>14217.6802938</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>1998</v>
       </c>
@@ -6757,11 +5895,8 @@
       <c r="E281" s="2">
         <v>14184.976204000001</v>
       </c>
-      <c r="F281" s="2">
-        <v>14184.976204000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>1999</v>
       </c>
@@ -6777,11 +5912,8 @@
       <c r="E282" s="2">
         <v>14199.8221885</v>
       </c>
-      <c r="F282" s="2">
-        <v>14199.8221885</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>2000</v>
       </c>
@@ -6797,11 +5929,8 @@
       <c r="E283" s="2">
         <v>14008.686365199999</v>
       </c>
-      <c r="F283" s="2">
-        <v>14008.686365199999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>2001</v>
       </c>
@@ -6817,11 +5946,8 @@
       <c r="E284" s="2">
         <v>13870.095279700001</v>
       </c>
-      <c r="F284" s="2">
-        <v>13870.095279700001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>2002</v>
       </c>
@@ -6837,11 +5963,8 @@
       <c r="E285" s="2">
         <v>13965.997145200001</v>
       </c>
-      <c r="F285" s="2">
-        <v>13965.997145200001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>2003</v>
       </c>
@@ -6857,11 +5980,8 @@
       <c r="E286" s="2">
         <v>13693.1294241</v>
       </c>
-      <c r="F286" s="2">
-        <v>13693.1294241</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>2004</v>
       </c>
@@ -6877,11 +5997,8 @@
       <c r="E287" s="2">
         <v>14104.892453599999</v>
       </c>
-      <c r="F287" s="2">
-        <v>14104.892453599999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>2005</v>
       </c>
@@ -6897,11 +6014,8 @@
       <c r="E288" s="2">
         <v>13906.651752</v>
       </c>
-      <c r="F288" s="2">
-        <v>13906.651752</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>2006</v>
       </c>
@@ -6917,11 +6031,8 @@
       <c r="E289" s="2">
         <v>14074.5831569</v>
       </c>
-      <c r="F289" s="2">
-        <v>14074.5831569</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>2007</v>
       </c>
@@ -6937,11 +6048,8 @@
       <c r="E290" s="2">
         <v>14212.6933715</v>
       </c>
-      <c r="F290" s="2">
-        <v>14212.6933715</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>2008</v>
       </c>
@@ -6957,11 +6065,8 @@
       <c r="E291" s="2">
         <v>13983.432054700001</v>
       </c>
-      <c r="F291" s="2">
-        <v>13983.432054700001</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>2009</v>
       </c>
@@ -6977,11 +6082,8 @@
       <c r="E292" s="2">
         <v>13541.0425082</v>
       </c>
-      <c r="F292" s="2">
-        <v>13541.0425082</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>2010</v>
       </c>
@@ -6997,11 +6099,8 @@
       <c r="E293" s="2">
         <v>13244.051949299999</v>
       </c>
-      <c r="F293" s="2">
-        <v>13244.051949299999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>2011</v>
       </c>
@@ -7017,11 +6116,8 @@
       <c r="E294" s="2">
         <v>12582.8408151</v>
       </c>
-      <c r="F294" s="2">
-        <v>12582.8408151</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>2012</v>
       </c>
@@ -7037,11 +6133,8 @@
       <c r="E295" s="2">
         <v>12679.4963004</v>
       </c>
-      <c r="F295" s="2">
-        <v>12679.4963004</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>2013</v>
       </c>
@@ -7057,11 +6150,8 @@
       <c r="E296" s="2">
         <v>12848.35002</v>
       </c>
-      <c r="F296" s="2">
-        <v>12848.35002</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>2014</v>
       </c>
@@ -7077,11 +6167,8 @@
       <c r="E297" s="2">
         <v>12419.107014499999</v>
       </c>
-      <c r="F297" s="2">
-        <v>12419.107014499999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>2015</v>
       </c>
@@ -7097,11 +6184,8 @@
       <c r="E298" s="2">
         <v>12210.637081999999</v>
       </c>
-      <c r="F298" s="2">
-        <v>12210.637081999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>2016</v>
       </c>
@@ -7117,13 +6201,10 @@
       <c r="E299" s="2">
         <v>11801.6021065</v>
       </c>
-      <c r="F299" s="2">
-        <v>11801.6021065</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
